--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -17148,7 +17148,7 @@
         <v>972</v>
       </c>
       <c r="B388" t="n">
-        <v>1.84199869594807</v>
+        <v>1.83924709299635</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="976">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2935,10 +2935,13 @@
     <t xml:space="preserve">Apr 2024</t>
   </si>
   <si>
+    <t xml:space="preserve">May 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">May 2024</t>
+    <t xml:space="preserve">Jun 2024</t>
   </si>
 </sst>
 </file>
@@ -5451,7 +5454,7 @@
         <v>1.66809322191166</v>
       </c>
       <c r="C189" t="n">
-        <v>0.950077930820847</v>
+        <v>0.950126929423059</v>
       </c>
     </row>
     <row r="190">
@@ -5462,7 +5465,7 @@
         <v>1.75388804071875</v>
       </c>
       <c r="C190" t="n">
-        <v>0.979223843064763</v>
+        <v>0.979303245997218</v>
       </c>
     </row>
     <row r="191">
@@ -5470,10 +5473,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>1.79278204188052</v>
+        <v>1.79275869348539</v>
       </c>
       <c r="C191" t="n">
-        <v>0.973367201421146</v>
+        <v>0.973386295837894</v>
       </c>
     </row>
     <row r="192">
@@ -5481,10 +5484,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>1.82859402278243</v>
+        <v>1.82858185471234</v>
       </c>
       <c r="C192" t="n">
-        <v>0.962994649117829</v>
+        <v>0.963010869819573</v>
       </c>
     </row>
     <row r="193">
@@ -5495,7 +5498,7 @@
         <v>1.85198312885335</v>
       </c>
       <c r="C193" t="n">
-        <v>0.951932928067242</v>
+        <v>0.951942602230981</v>
       </c>
     </row>
     <row r="194">
@@ -5503,10 +5506,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>1.90761359375381</v>
+        <v>1.90666260396805</v>
       </c>
       <c r="C194" t="n">
-        <v>0.956089645539224</v>
+        <v>0.955458631362632</v>
       </c>
     </row>
     <row r="195">
@@ -5514,10 +5517,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>1.93931514867869</v>
+        <v>1.93786944602665</v>
       </c>
       <c r="C195" t="n">
-        <v>0.960924696621085</v>
+        <v>0.959983155804845</v>
       </c>
     </row>
     <row r="196">
@@ -5525,10 +5528,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>1.96000718741176</v>
+        <v>1.95957746045744</v>
       </c>
       <c r="C196" t="n">
-        <v>0.957872743553473</v>
+        <v>0.957182715394576</v>
       </c>
     </row>
     <row r="197">
@@ -5536,10 +5539,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>1.95846574630536</v>
+        <v>1.95580189497367</v>
       </c>
       <c r="C197" t="n">
-        <v>0.948266583586557</v>
+        <v>0.947950965110481</v>
       </c>
     </row>
   </sheetData>
@@ -14060,6 +14063,17 @@
         <v>4.38</v>
       </c>
     </row>
+    <row r="774">
+      <c r="A774" t="s">
+        <v>973</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.86624203821657</v>
+      </c>
+      <c r="C774" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14080,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2">
@@ -17181,10 +17195,18 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B389" t="n">
-        <v>1.81274470347721</v>
+        <v>1.81053530040817</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>975</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1.77429138061809</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="977">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2938,10 +2938,13 @@
     <t xml:space="preserve">May 2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Jun 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun 2024</t>
+    <t xml:space="preserve">Jul 2024</t>
   </si>
 </sst>
 </file>
@@ -14074,6 +14077,17 @@
         <v>4.39</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" t="s">
+        <v>974</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2.67175572519085</v>
+      </c>
+      <c r="C775" t="n">
+        <v>4.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14094,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2">
@@ -17203,10 +17217,18 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B390" t="n">
-        <v>1.77429138061809</v>
+        <v>1.7743818224889</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>976</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1.78486745270615</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="980">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2947,7 +2947,13 @@
     <t xml:space="preserve">Jul 2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Aug 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep 2024</t>
   </si>
 </sst>
 </file>
@@ -5325,10 +5331,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>2.24549300495367</v>
+        <v>2.2619256655942</v>
       </c>
       <c r="C177" t="n">
-        <v>1.07025514004188</v>
+        <v>1.07031656622461</v>
       </c>
     </row>
     <row r="178">
@@ -5336,10 +5342,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="n">
-        <v>2.27149030906234</v>
+        <v>2.26607588338236</v>
       </c>
       <c r="C178" t="n">
-        <v>1.07046597093466</v>
+        <v>1.07061381093112</v>
       </c>
     </row>
     <row r="179">
@@ -5347,10 +5353,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>2.22680716817194</v>
+        <v>2.21278036383662</v>
       </c>
       <c r="C179" t="n">
-        <v>1.05732177285899</v>
+        <v>1.05728647486348</v>
       </c>
     </row>
     <row r="180">
@@ -5358,10 +5364,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="n">
-        <v>2.18603533534722</v>
+        <v>2.18689917323073</v>
       </c>
       <c r="C180" t="n">
-        <v>1.04847454436195</v>
+        <v>1.04832550917496</v>
       </c>
     </row>
     <row r="181">
@@ -5369,10 +5375,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>2.03636838310989</v>
+        <v>2.05552637457873</v>
       </c>
       <c r="C181" t="n">
-        <v>0.998903600364516</v>
+        <v>0.99899824346948</v>
       </c>
     </row>
     <row r="182">
@@ -5380,10 +5386,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="n">
-        <v>1.62936731914504</v>
+        <v>1.62541254835013</v>
       </c>
       <c r="C182" t="n">
-        <v>0.821602796260766</v>
+        <v>0.821711078106897</v>
       </c>
     </row>
     <row r="183">
@@ -5391,10 +5397,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>1.697778424923</v>
+        <v>1.68494092851794</v>
       </c>
       <c r="C183" t="n">
-        <v>0.877220873671094</v>
+        <v>0.877039249526503</v>
       </c>
     </row>
     <row r="184">
@@ -5402,10 +5408,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>1.67595598590621</v>
+        <v>1.6749687635739</v>
       </c>
       <c r="C184" t="n">
-        <v>0.886314497335619</v>
+        <v>0.886350547640803</v>
       </c>
     </row>
     <row r="185">
@@ -5413,10 +5419,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>1.66755661048523</v>
+        <v>1.68573330844725</v>
       </c>
       <c r="C185" t="n">
-        <v>0.904389110234034</v>
+        <v>0.904501198588226</v>
       </c>
     </row>
     <row r="186">
@@ -5424,10 +5430,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>1.62785570979185</v>
+        <v>1.62462197447867</v>
       </c>
       <c r="C186" t="n">
-        <v>0.897961283546496</v>
+        <v>0.898033527140296</v>
       </c>
     </row>
     <row r="187">
@@ -5435,10 +5441,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>1.62470751518194</v>
+        <v>1.61152321609264</v>
       </c>
       <c r="C187" t="n">
-        <v>0.907442314777527</v>
+        <v>0.907110265815936</v>
       </c>
     </row>
     <row r="188">
@@ -5446,10 +5452,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>1.65413965474883</v>
+        <v>1.65259193877851</v>
       </c>
       <c r="C188" t="n">
-        <v>0.931556011098205</v>
+        <v>0.931770543797474</v>
       </c>
     </row>
     <row r="189">
@@ -5457,10 +5463,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>1.66809322191166</v>
+        <v>1.68619982939593</v>
       </c>
       <c r="C189" t="n">
-        <v>0.950126929423059</v>
+        <v>0.950264351111251</v>
       </c>
     </row>
     <row r="190">
@@ -5468,10 +5474,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>1.75388804071875</v>
+        <v>1.75165408495195</v>
       </c>
       <c r="C190" t="n">
-        <v>0.979303245997218</v>
+        <v>0.979315506237738</v>
       </c>
     </row>
     <row r="191">
@@ -5479,10 +5485,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>1.79275869348539</v>
+        <v>1.77802462680115</v>
       </c>
       <c r="C191" t="n">
-        <v>0.973386295837894</v>
+        <v>0.972895962248798</v>
       </c>
     </row>
     <row r="192">
@@ -5490,10 +5496,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>1.82858185471234</v>
+        <v>1.82683212519102</v>
       </c>
       <c r="C192" t="n">
-        <v>0.963010869819573</v>
+        <v>0.963390742832728</v>
       </c>
     </row>
     <row r="193">
@@ -5501,10 +5507,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>1.85198312885335</v>
+        <v>1.8706725771271</v>
       </c>
       <c r="C193" t="n">
-        <v>0.951942602230981</v>
+        <v>0.952133467968938</v>
       </c>
     </row>
     <row r="194">
@@ -5512,10 +5518,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>1.90666260396805</v>
+        <v>1.9056149911</v>
       </c>
       <c r="C194" t="n">
-        <v>0.955458631362632</v>
+        <v>0.955377305090317</v>
       </c>
     </row>
     <row r="195">
@@ -5523,10 +5529,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>1.93786944602665</v>
+        <v>1.92204643471408</v>
       </c>
       <c r="C195" t="n">
-        <v>0.959983155804845</v>
+        <v>0.95947409593747</v>
       </c>
     </row>
     <row r="196">
@@ -5534,10 +5540,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>1.95957746045744</v>
+        <v>1.957400935994</v>
       </c>
       <c r="C196" t="n">
-        <v>0.957182715394576</v>
+        <v>0.957703612261181</v>
       </c>
     </row>
     <row r="197">
@@ -5545,10 +5551,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>1.95593429333917</v>
+        <v>1.97529417060625</v>
       </c>
       <c r="C197" t="n">
-        <v>0.948015136823718</v>
+        <v>0.948333313183785</v>
       </c>
     </row>
     <row r="198">
@@ -5556,10 +5562,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>1.94660779731094</v>
+        <v>1.94859015956947</v>
       </c>
       <c r="C198" t="n">
-        <v>0.948566789822563</v>
+        <v>0.949109593150862</v>
       </c>
     </row>
   </sheetData>
@@ -14113,6 +14119,17 @@
         <v>3.59</v>
       </c>
     </row>
+    <row r="777">
+      <c r="A777" t="s">
+        <v>977</v>
+      </c>
+      <c r="B777" t="n">
+        <v>1.9533711405167</v>
+      </c>
+      <c r="C777" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14133,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="2">
@@ -17246,6 +17263,14 @@
       </c>
       <c r="B390" t="n">
         <v>1.7743818224889</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>979</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1.62673520313922</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="981">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2950,10 +2950,13 @@
     <t xml:space="preserve">Aug 2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Sep 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Sep 2024</t>
+    <t xml:space="preserve">Oct 2024</t>
   </si>
 </sst>
 </file>
@@ -14130,6 +14133,17 @@
         <v>3.39</v>
       </c>
     </row>
+    <row r="778">
+      <c r="A778" t="s">
+        <v>978</v>
+      </c>
+      <c r="B778" t="n">
+        <v>1.64037854889589</v>
+      </c>
+      <c r="C778" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14150,7 +14164,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2">
@@ -17267,10 +17281,18 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B391" t="n">
-        <v>1.62673520313922</v>
+        <v>1.62662298564903</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>980</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1.69370178083847</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="984">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2959,10 +2959,13 @@
     <t xml:space="preserve">Oct 2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Nov 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov 2024</t>
+    <t xml:space="preserve">Dec 2024</t>
   </si>
 </sst>
 </file>
@@ -5563,7 +5566,7 @@
         <v>2.00827746903415</v>
       </c>
       <c r="C197" t="n">
-        <v>0.964168504287628</v>
+        <v>0.964181398858115</v>
       </c>
     </row>
     <row r="198">
@@ -5571,10 +5574,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>1.97944202879914</v>
+        <v>1.97933251773346</v>
       </c>
       <c r="C198" t="n">
-        <v>0.964136768007882</v>
+        <v>0.964033256811931</v>
       </c>
     </row>
     <row r="199">
@@ -5582,10 +5585,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>1.96589946094863</v>
+        <v>1.96321188539087</v>
       </c>
       <c r="C199" t="n">
-        <v>0.962428982668421</v>
+        <v>0.960687760562057</v>
       </c>
     </row>
   </sheetData>
@@ -14172,6 +14175,17 @@
         <v>3.11</v>
       </c>
     </row>
+    <row r="780">
+      <c r="A780" t="s">
+        <v>981</v>
+      </c>
+      <c r="B780" t="n">
+        <v>1.88916876574308</v>
+      </c>
+      <c r="C780" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14192,7 +14206,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2">
@@ -17325,10 +17339,18 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B393" t="n">
-        <v>1.74338161913252</v>
+        <v>1.74079993758384</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>983</v>
+      </c>
+      <c r="B394" t="n">
+        <v>1.7514046356123</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="985">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2962,10 +2962,13 @@
     <t xml:space="preserve">Nov 2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Dec 2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec 2024</t>
+    <t xml:space="preserve">Jan 2025</t>
   </si>
 </sst>
 </file>
@@ -14186,6 +14189,17 @@
         <v>3.19</v>
       </c>
     </row>
+    <row r="781">
+      <c r="A781" t="s">
+        <v>982</v>
+      </c>
+      <c r="B781" t="n">
+        <v>1.83196462413138</v>
+      </c>
+      <c r="C781" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14206,7 +14220,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="2">
@@ -17347,10 +17361,18 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B394" t="n">
-        <v>1.7514046356123</v>
+        <v>1.76272042528198</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>984</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1.85807874192787</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="986">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2965,10 +2965,13 @@
     <t xml:space="preserve">Dec 2024</t>
   </si>
   <si>
+    <t xml:space="preserve">Jan 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan 2025</t>
+    <t xml:space="preserve">Feb 2025</t>
   </si>
 </sst>
 </file>
@@ -14200,6 +14203,17 @@
         <v>3.01</v>
       </c>
     </row>
+    <row r="782">
+      <c r="A782" t="s">
+        <v>983</v>
+      </c>
+      <c r="B782" t="n">
+        <v>1.89513581806695</v>
+      </c>
+      <c r="C782" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14220,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="2">
@@ -17369,10 +17383,18 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B395" t="n">
-        <v>1.85807874192787</v>
+        <v>1.85850325491745</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>985</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1.84322550997095</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="988">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2971,10 +2971,13 @@
     <t xml:space="preserve">Jan 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Feb 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Feb 2025</t>
+    <t xml:space="preserve">Mar 2025</t>
   </si>
 </sst>
 </file>
@@ -4552,7 +4555,7 @@
         <v>4.7412144318938</v>
       </c>
       <c r="C104" t="n">
-        <v>1.60318349833863</v>
+        <v>1.60318274209609</v>
       </c>
     </row>
     <row r="105">
@@ -4563,7 +4566,7 @@
         <v>4.71711441194206</v>
       </c>
       <c r="C105" t="n">
-        <v>1.60353228054094</v>
+        <v>1.60353153518311</v>
       </c>
     </row>
     <row r="106">
@@ -4574,7 +4577,7 @@
         <v>4.61337761859981</v>
       </c>
       <c r="C106" t="n">
-        <v>1.58134490536154</v>
+        <v>1.58134562839032</v>
       </c>
     </row>
     <row r="107">
@@ -4585,7 +4588,7 @@
         <v>4.46257298483483</v>
       </c>
       <c r="C107" t="n">
-        <v>1.54097270741422</v>
+        <v>1.54097131730393</v>
       </c>
     </row>
     <row r="108">
@@ -4596,7 +4599,7 @@
         <v>4.28775035178458</v>
       </c>
       <c r="C108" t="n">
-        <v>1.49139020360925</v>
+        <v>1.49139085592816</v>
       </c>
     </row>
     <row r="109">
@@ -4607,7 +4610,7 @@
         <v>4.24438241349247</v>
       </c>
       <c r="C109" t="n">
-        <v>1.48844331623896</v>
+        <v>1.48844204149063</v>
       </c>
     </row>
     <row r="110">
@@ -4618,7 +4621,7 @@
         <v>4.30074598989632</v>
       </c>
       <c r="C110" t="n">
-        <v>1.51401356097524</v>
+        <v>1.51401420528294</v>
       </c>
     </row>
     <row r="111">
@@ -4673,7 +4676,7 @@
         <v>4.28987944796989</v>
       </c>
       <c r="C115" t="n">
-        <v>1.51066944451337</v>
+        <v>1.51067004906722</v>
       </c>
     </row>
     <row r="116">
@@ -4695,7 +4698,7 @@
         <v>4.27065370308747</v>
       </c>
       <c r="C117" t="n">
-        <v>1.52199598742214</v>
+        <v>1.5219953917213</v>
       </c>
     </row>
     <row r="118">
@@ -4717,7 +4720,7 @@
         <v>4.27646102714636</v>
       </c>
       <c r="C119" t="n">
-        <v>1.55019186034952</v>
+        <v>1.55019304576435</v>
       </c>
     </row>
     <row r="120">
@@ -4728,7 +4731,7 @@
         <v>4.28827751196172</v>
       </c>
       <c r="C120" t="n">
-        <v>1.55506095133373</v>
+        <v>1.55506036170385</v>
       </c>
     </row>
     <row r="121">
@@ -4739,7 +4742,7 @@
         <v>4.22825156888492</v>
       </c>
       <c r="C121" t="n">
-        <v>1.54305970574722</v>
+        <v>1.54305913075363</v>
       </c>
     </row>
     <row r="122">
@@ -4761,7 +4764,7 @@
         <v>4.3118469930926</v>
       </c>
       <c r="C123" t="n">
-        <v>1.5786772288366</v>
+        <v>1.57867665072601</v>
       </c>
     </row>
     <row r="124">
@@ -4783,7 +4786,7 @@
         <v>4.2484315439326</v>
       </c>
       <c r="C125" t="n">
-        <v>1.57163280865122</v>
+        <v>1.5716322508308</v>
       </c>
     </row>
     <row r="126">
@@ -4805,7 +4808,7 @@
         <v>4.12897585155175</v>
       </c>
       <c r="C127" t="n">
-        <v>1.54753923941467</v>
+        <v>1.54753870896534</v>
       </c>
     </row>
     <row r="128">
@@ -4827,7 +4830,7 @@
         <v>4.0605838464654</v>
       </c>
       <c r="C129" t="n">
-        <v>1.52315981071692</v>
+        <v>1.52315881110457</v>
       </c>
     </row>
     <row r="130">
@@ -4860,7 +4863,7 @@
         <v>4.00988992954925</v>
       </c>
       <c r="C132" t="n">
-        <v>1.50069024860173</v>
+        <v>1.50069071646518</v>
       </c>
     </row>
     <row r="133">
@@ -4871,7 +4874,7 @@
         <v>4.00625420556174</v>
       </c>
       <c r="C133" t="n">
-        <v>1.48327249019408</v>
+        <v>1.48327293810697</v>
       </c>
     </row>
     <row r="134">
@@ -4882,7 +4885,7 @@
         <v>3.99013001923568</v>
       </c>
       <c r="C134" t="n">
-        <v>1.48010291776814</v>
+        <v>1.48010248244337</v>
       </c>
     </row>
     <row r="135">
@@ -4893,7 +4896,7 @@
         <v>3.93675525690757</v>
       </c>
       <c r="C135" t="n">
-        <v>1.46166866835408</v>
+        <v>1.46166824808074</v>
       </c>
     </row>
     <row r="136">
@@ -4915,7 +4918,7 @@
         <v>3.41373474607234</v>
       </c>
       <c r="C137" t="n">
-        <v>1.24281940435494</v>
+        <v>1.24281907372562</v>
       </c>
     </row>
     <row r="138">
@@ -4926,7 +4929,7 @@
         <v>3.29902828643074</v>
       </c>
       <c r="C138" t="n">
-        <v>1.20973923804196</v>
+        <v>1.20973860797863</v>
       </c>
     </row>
     <row r="139">
@@ -4937,7 +4940,7 @@
         <v>3.22052857844154</v>
       </c>
       <c r="C139" t="n">
-        <v>1.20755466798724</v>
+        <v>1.20755435798329</v>
       </c>
     </row>
     <row r="140">
@@ -4948,7 +4951,7 @@
         <v>3.20449032504354</v>
       </c>
       <c r="C140" t="n">
-        <v>1.23101560628284</v>
+        <v>1.23101529286501</v>
       </c>
     </row>
     <row r="141">
@@ -4959,7 +4962,7 @@
         <v>3.1911777170583</v>
       </c>
       <c r="C141" t="n">
-        <v>1.24852316659005</v>
+        <v>1.24852348264442</v>
       </c>
     </row>
     <row r="142">
@@ -4970,7 +4973,7 @@
         <v>3.12622006680151</v>
       </c>
       <c r="C142" t="n">
-        <v>1.24420352806803</v>
+        <v>1.24420321594516</v>
       </c>
     </row>
     <row r="143">
@@ -4981,7 +4984,7 @@
         <v>3.09764036709534</v>
       </c>
       <c r="C143" t="n">
-        <v>1.23761141588277</v>
+        <v>1.23761202903218</v>
       </c>
     </row>
     <row r="144">
@@ -4992,7 +4995,7 @@
         <v>3.11223483190321</v>
       </c>
       <c r="C144" t="n">
-        <v>1.25466081854815</v>
+        <v>1.25466112692895</v>
       </c>
     </row>
     <row r="145">
@@ -5014,7 +5017,7 @@
         <v>3.12274114557456</v>
       </c>
       <c r="C146" t="n">
-        <v>1.27385690681532</v>
+        <v>1.27385752153073</v>
       </c>
     </row>
     <row r="147">
@@ -5058,7 +5061,7 @@
         <v>2.90760945724679</v>
       </c>
       <c r="C150" t="n">
-        <v>1.23836725616523</v>
+        <v>1.23836697513781</v>
       </c>
     </row>
     <row r="151">
@@ -5069,7 +5072,7 @@
         <v>2.87543332490375</v>
       </c>
       <c r="C151" t="n">
-        <v>1.22558452791889</v>
+        <v>1.2255842544152</v>
       </c>
     </row>
     <row r="152">
@@ -5080,7 +5083,7 @@
         <v>2.87380775142737</v>
       </c>
       <c r="C152" t="n">
-        <v>1.21869562238665</v>
+        <v>1.21869535391826</v>
       </c>
     </row>
     <row r="153">
@@ -5102,7 +5105,7 @@
         <v>2.79988997876749</v>
       </c>
       <c r="C154" t="n">
-        <v>1.21453195643735</v>
+        <v>1.21453169581086</v>
       </c>
     </row>
     <row r="155">
@@ -5124,7 +5127,7 @@
         <v>2.7658519555737</v>
       </c>
       <c r="C156" t="n">
-        <v>1.21457675060929</v>
+        <v>1.21457700498114</v>
       </c>
     </row>
     <row r="157">
@@ -5135,7 +5138,7 @@
         <v>2.74540452186007</v>
       </c>
       <c r="C157" t="n">
-        <v>1.21764540629172</v>
+        <v>1.21764515458198</v>
       </c>
     </row>
     <row r="158">
@@ -5223,7 +5226,7 @@
         <v>2.41313104967252</v>
       </c>
       <c r="C165" t="n">
-        <v>1.12292151465522</v>
+        <v>1.12292172498021</v>
       </c>
     </row>
     <row r="166">
@@ -5264,10 +5267,10 @@
         <v>170</v>
       </c>
       <c r="B169" t="n">
-        <v>2.31778223378291</v>
+        <v>2.32122782913962</v>
       </c>
       <c r="C169" t="n">
-        <v>1.10014698562902</v>
+        <v>1.10141890429106</v>
       </c>
     </row>
     <row r="170">
@@ -5275,10 +5278,10 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>2.27370609902591</v>
+        <v>2.27646174903296</v>
       </c>
       <c r="C170" t="n">
-        <v>1.09539986090781</v>
+        <v>1.09483663443183</v>
       </c>
     </row>
     <row r="171">
@@ -5286,10 +5289,10 @@
         <v>172</v>
       </c>
       <c r="B171" t="n">
-        <v>2.26596622592882</v>
+        <v>2.26525442641284</v>
       </c>
       <c r="C171" t="n">
-        <v>1.09535518012462</v>
+        <v>1.09492082631959</v>
       </c>
     </row>
     <row r="172">
@@ -5297,10 +5300,10 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>2.28725330110669</v>
+        <v>2.27995646570003</v>
       </c>
       <c r="C172" t="n">
-        <v>1.10272028828707</v>
+        <v>1.10223158515562</v>
       </c>
     </row>
     <row r="173">
@@ -5308,10 +5311,10 @@
         <v>174</v>
       </c>
       <c r="B173" t="n">
-        <v>2.30086506524998</v>
+        <v>2.28479994037135</v>
       </c>
       <c r="C173" t="n">
-        <v>1.09894845441587</v>
+        <v>1.10197305516736</v>
       </c>
     </row>
     <row r="174">
@@ -5319,10 +5322,10 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>2.301044135563</v>
+        <v>2.29501603901136</v>
       </c>
       <c r="C174" t="n">
-        <v>1.10997540289893</v>
+        <v>1.10890466316558</v>
       </c>
     </row>
     <row r="175">
@@ -5330,10 +5333,10 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>2.28945904173107</v>
+        <v>2.29227712484094</v>
       </c>
       <c r="C175" t="n">
-        <v>1.10706747815223</v>
+        <v>1.10480694975345</v>
       </c>
     </row>
     <row r="176">
@@ -5341,10 +5344,10 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>2.21972654020863</v>
+        <v>2.23547712278067</v>
       </c>
       <c r="C176" t="n">
-        <v>1.07407402071589</v>
+        <v>1.07387513231713</v>
       </c>
     </row>
     <row r="177">
@@ -5352,10 +5355,10 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>2.2619256655942</v>
+        <v>2.26270991213085</v>
       </c>
       <c r="C177" t="n">
-        <v>1.07031656622461</v>
+        <v>1.07026927585385</v>
       </c>
     </row>
     <row r="178">
@@ -5363,10 +5366,10 @@
         <v>179</v>
       </c>
       <c r="B178" t="n">
-        <v>2.26607588338236</v>
+        <v>2.26591898520858</v>
       </c>
       <c r="C178" t="n">
-        <v>1.07061381093112</v>
+        <v>1.07061827154321</v>
       </c>
     </row>
     <row r="179">
@@ -5374,10 +5377,10 @@
         <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>2.21278036383662</v>
+        <v>2.21249718969466</v>
       </c>
       <c r="C179" t="n">
-        <v>1.05728647486348</v>
+        <v>1.05729658268501</v>
       </c>
     </row>
     <row r="180">
@@ -5385,10 +5388,10 @@
         <v>181</v>
       </c>
       <c r="B180" t="n">
-        <v>2.18689917323073</v>
+        <v>2.18711897088754</v>
       </c>
       <c r="C180" t="n">
-        <v>1.04832550917496</v>
+        <v>1.0483738318424</v>
       </c>
     </row>
     <row r="181">
@@ -5396,10 +5399,10 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>2.05552637457873</v>
+        <v>2.05524018205995</v>
       </c>
       <c r="C181" t="n">
-        <v>0.99899824346948</v>
+        <v>0.998897785704743</v>
       </c>
     </row>
     <row r="182">
@@ -5407,10 +5410,10 @@
         <v>183</v>
       </c>
       <c r="B182" t="n">
-        <v>1.62541254835013</v>
+        <v>1.62555147780193</v>
       </c>
       <c r="C182" t="n">
-        <v>0.821711078106897</v>
+        <v>0.821740106957539</v>
       </c>
     </row>
     <row r="183">
@@ -5418,10 +5421,10 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>1.68494092851794</v>
+        <v>1.68493166096518</v>
       </c>
       <c r="C183" t="n">
-        <v>0.877039249526503</v>
+        <v>0.877084677047821</v>
       </c>
     </row>
     <row r="184">
@@ -5429,10 +5432,10 @@
         <v>185</v>
       </c>
       <c r="B184" t="n">
-        <v>1.6749687635739</v>
+        <v>1.67550316392176</v>
       </c>
       <c r="C184" t="n">
-        <v>0.886350547640803</v>
+        <v>0.886374358173131</v>
       </c>
     </row>
     <row r="185">
@@ -5440,10 +5443,10 @@
         <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>1.69331335017787</v>
+        <v>1.69227542590139</v>
       </c>
       <c r="C185" t="n">
-        <v>0.908568364370821</v>
+        <v>0.908432804322817</v>
       </c>
     </row>
     <row r="186">
@@ -5451,10 +5454,10 @@
         <v>187</v>
       </c>
       <c r="B186" t="n">
-        <v>1.63856018377046</v>
+        <v>1.63895415898412</v>
       </c>
       <c r="C186" t="n">
-        <v>0.905738075920846</v>
+        <v>0.905803036435159</v>
       </c>
     </row>
     <row r="187">
@@ -5462,10 +5465,10 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>1.62515438086616</v>
+        <v>1.6251609065078</v>
       </c>
       <c r="C187" t="n">
-        <v>0.914783111839879</v>
+        <v>0.914842967608478</v>
       </c>
     </row>
     <row r="188">
@@ -5473,10 +5476,10 @@
         <v>189</v>
       </c>
       <c r="B188" t="n">
-        <v>1.66588614808759</v>
+        <v>1.66680108231396</v>
       </c>
       <c r="C188" t="n">
-        <v>0.939266134418854</v>
+        <v>0.939288241050763</v>
       </c>
     </row>
     <row r="189">
@@ -5484,10 +5487,10 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>1.71620849977675</v>
+        <v>1.71459463823358</v>
       </c>
       <c r="C189" t="n">
-        <v>0.967175851865793</v>
+        <v>0.966999816596602</v>
       </c>
     </row>
     <row r="190">
@@ -5495,10 +5498,10 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>1.78126182553127</v>
+        <v>1.78188523786653</v>
       </c>
       <c r="C190" t="n">
-        <v>0.995868614355997</v>
+        <v>0.995966420493685</v>
       </c>
     </row>
     <row r="191">
@@ -5506,10 +5509,10 @@
         <v>192</v>
       </c>
       <c r="B191" t="n">
-        <v>1.79498443247004</v>
+        <v>1.79496910061799</v>
       </c>
       <c r="C191" t="n">
-        <v>0.982175994823756</v>
+        <v>0.982244408541398</v>
       </c>
     </row>
     <row r="192">
@@ -5517,10 +5520,10 @@
         <v>193</v>
       </c>
       <c r="B192" t="n">
-        <v>1.84414084933527</v>
+        <v>1.84566548549868</v>
       </c>
       <c r="C192" t="n">
-        <v>0.972518601041959</v>
+        <v>0.97254268808918</v>
       </c>
     </row>
     <row r="193">
@@ -5528,10 +5531,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>1.89818742515088</v>
+        <v>1.89564972307374</v>
       </c>
       <c r="C193" t="n">
-        <v>0.966137953836668</v>
+        <v>0.96594881148336</v>
       </c>
     </row>
     <row r="194">
@@ -5539,10 +5542,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>1.93121720680252</v>
+        <v>1.93220090919171</v>
       </c>
       <c r="C194" t="n">
-        <v>0.968212938708049</v>
+        <v>0.968326349026279</v>
       </c>
     </row>
     <row r="195">
@@ -5550,10 +5553,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>1.94999633281479</v>
+        <v>1.94961502084822</v>
       </c>
       <c r="C195" t="n">
-        <v>0.973426518068057</v>
+        <v>0.97344824492424</v>
       </c>
     </row>
     <row r="196">
@@ -5561,10 +5564,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>1.98662771001026</v>
+        <v>1.98898414662316</v>
       </c>
       <c r="C196" t="n">
-        <v>0.972003486413379</v>
+        <v>0.972058245977055</v>
       </c>
     </row>
     <row r="197">
@@ -5572,10 +5575,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>2.00713826965598</v>
+        <v>2.00404335098832</v>
       </c>
       <c r="C197" t="n">
-        <v>0.963634465046949</v>
+        <v>0.963450055469142</v>
       </c>
     </row>
     <row r="198">
@@ -5583,10 +5586,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>1.97969039621427</v>
+        <v>1.9807704033908</v>
       </c>
       <c r="C198" t="n">
-        <v>0.964207561409215</v>
+        <v>0.964326724239208</v>
       </c>
     </row>
     <row r="199">
@@ -5594,10 +5597,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>1.96804593752551</v>
+        <v>1.96850038762146</v>
       </c>
       <c r="C199" t="n">
-        <v>0.963053279411154</v>
+        <v>0.962817810976153</v>
       </c>
     </row>
     <row r="200">
@@ -5605,10 +5608,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>1.95107968121208</v>
+        <v>1.95453029121141</v>
       </c>
       <c r="C200" t="n">
-        <v>0.961670434272619</v>
+        <v>0.961466313300877</v>
       </c>
     </row>
   </sheetData>
@@ -14228,6 +14231,17 @@
         <v>2.79</v>
       </c>
     </row>
+    <row r="783">
+      <c r="A783" t="s">
+        <v>985</v>
+      </c>
+      <c r="B783" t="n">
+        <v>2.64483627204029</v>
+      </c>
+      <c r="C783" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14248,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="2">
@@ -17405,10 +17419,18 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B396" t="n">
-        <v>1.84064927846405</v>
+        <v>1.83938307578395</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>987</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1.82753853090071</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="989">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2974,10 +2974,13 @@
     <t xml:space="preserve">Feb 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Mar 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Mar 2025</t>
+    <t xml:space="preserve">Apr 2025</t>
   </si>
 </sst>
 </file>
@@ -14242,6 +14245,17 @@
         <v>2.67</v>
       </c>
     </row>
+    <row r="784">
+      <c r="A784" t="s">
+        <v>986</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.31539424280349</v>
+      </c>
+      <c r="C784" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14262,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="2">
@@ -17427,10 +17441,18 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B397" t="n">
-        <v>1.82753853090071</v>
+        <v>1.82864247256835</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>988</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1.80626798261674</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -2983,10 +2983,10 @@
     <t xml:space="preserve">Apr 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">May 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2025</t>
   </si>
 </sst>
 </file>
@@ -5540,10 +5540,10 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>1.89564972307374</v>
+        <v>1.89565096945623</v>
       </c>
       <c r="C193" t="n">
-        <v>0.96594881148336</v>
+        <v>0.965955068288763</v>
       </c>
     </row>
     <row r="194">
@@ -5551,10 +5551,10 @@
         <v>195</v>
       </c>
       <c r="B194" t="n">
-        <v>1.93220090919171</v>
+        <v>1.93220348003568</v>
       </c>
       <c r="C194" t="n">
-        <v>0.968326349026279</v>
+        <v>0.968335496177395</v>
       </c>
     </row>
     <row r="195">
@@ -5562,10 +5562,10 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>1.94961502084822</v>
+        <v>1.94961759678002</v>
       </c>
       <c r="C195" t="n">
-        <v>0.97344824492424</v>
+        <v>0.973456700465414</v>
       </c>
     </row>
     <row r="196">
@@ -5573,10 +5573,10 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>1.98898414662316</v>
+        <v>1.98898678706505</v>
       </c>
       <c r="C196" t="n">
-        <v>0.972058245977055</v>
+        <v>0.972066234452105</v>
       </c>
     </row>
     <row r="197">
@@ -5584,10 +5584,10 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>2.00566941355835</v>
+        <v>2.04057533221367</v>
       </c>
       <c r="C197" t="n">
-        <v>0.964231790092059</v>
+        <v>0.967916283459798</v>
       </c>
     </row>
     <row r="198">
@@ -5595,10 +5595,10 @@
         <v>199</v>
       </c>
       <c r="B198" t="n">
-        <v>1.98189392455283</v>
+        <v>2.03089902578065</v>
       </c>
       <c r="C198" t="n">
-        <v>0.964873704080958</v>
+        <v>0.968754049353868</v>
       </c>
     </row>
     <row r="199">
@@ -5606,10 +5606,10 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>1.97284310877938</v>
+        <v>2.01939878775532</v>
       </c>
       <c r="C199" t="n">
-        <v>0.964941889439761</v>
+        <v>0.967771389615338</v>
       </c>
     </row>
     <row r="200">
@@ -5617,10 +5617,10 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>1.95582725226953</v>
+        <v>1.96866774089483</v>
       </c>
       <c r="C200" t="n">
-        <v>0.962104310252192</v>
+        <v>0.964807773444729</v>
       </c>
     </row>
     <row r="201">
@@ -5628,10 +5628,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>1.93965924964528</v>
+        <v>1.93532936273575</v>
       </c>
       <c r="C201" t="n">
-        <v>0.958709842137119</v>
+        <v>0.961039556073387</v>
       </c>
     </row>
   </sheetData>
@@ -14284,6 +14284,17 @@
         <v>2.48</v>
       </c>
     </row>
+    <row r="786">
+      <c r="A786" t="s">
+        <v>989</v>
+      </c>
+      <c r="B786" t="n">
+        <v>1.73374613003097</v>
+      </c>
+      <c r="C786" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14304,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="2">
@@ -17485,10 +17496,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B399" t="n">
-        <v>1.82261105195011</v>
+        <v>1.82554428949822</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="993">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2986,7 +2986,13 @@
     <t xml:space="preserve">May 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Jun 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 2025</t>
   </si>
 </sst>
 </file>
@@ -5631,7 +5637,7 @@
         <v>1.93532936273575</v>
       </c>
       <c r="C201" t="n">
-        <v>0.961039556073387</v>
+        <v>0.961095812435376</v>
       </c>
     </row>
   </sheetData>
@@ -14295,6 +14301,17 @@
         <v>2.62</v>
       </c>
     </row>
+    <row r="787">
+      <c r="A787" t="s">
+        <v>990</v>
+      </c>
+      <c r="B787" t="n">
+        <v>1.85873605947955</v>
+      </c>
+      <c r="C787" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14315,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2">
@@ -17500,6 +17517,14 @@
       </c>
       <c r="B399" t="n">
         <v>1.82554428949822</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>992</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1.91482644973658</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="996">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -2995,10 +2995,13 @@
     <t xml:space="preserve">Jul 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Aug 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Aug 2025</t>
+    <t xml:space="preserve">Sep 2025</t>
   </si>
 </sst>
 </file>
@@ -5640,10 +5643,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>1.9358073627447</v>
+        <v>1.93564646871281</v>
       </c>
       <c r="C201" t="n">
-        <v>0.961333190018636</v>
+        <v>0.961095153641224</v>
       </c>
     </row>
     <row r="202">
@@ -5651,10 +5654,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>1.90189538859736</v>
+        <v>1.89970955318925</v>
       </c>
       <c r="C202" t="n">
-        <v>0.945774087839865</v>
+        <v>0.946994948453989</v>
       </c>
     </row>
   </sheetData>
@@ -14340,6 +14343,17 @@
         <v>2.79</v>
       </c>
     </row>
+    <row r="789">
+      <c r="A789" t="s">
+        <v>993</v>
+      </c>
+      <c r="B789" t="n">
+        <v>1.85414091470952</v>
+      </c>
+      <c r="C789" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14360,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="2">
@@ -17557,10 +17571,18 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B401" t="n">
-        <v>1.97998679185368</v>
+        <v>1.98227063361922</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>995</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1.95792757403776</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="997">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -3002,6 +3002,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sep 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 2025</t>
   </si>
 </sst>
 </file>
@@ -17585,6 +17588,14 @@
         <v>1.95792757403776</v>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>996</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1.92014718056121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -17593,7 +17593,7 @@
         <v>996</v>
       </c>
       <c r="B403" t="n">
-        <v>1.92014718056121</v>
+        <v>1.92147405863142</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -2998,10 +2998,10 @@
     <t xml:space="preserve">Aug 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Sep 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Oct 2025</t>
@@ -5657,10 +5657,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>1.89970955318925</v>
+        <v>1.89969700106539</v>
       </c>
       <c r="C202" t="n">
-        <v>0.946994948453989</v>
+        <v>0.946991829280246</v>
       </c>
     </row>
   </sheetData>
@@ -14357,6 +14357,17 @@
         <v>2.7</v>
       </c>
     </row>
+    <row r="790">
+      <c r="A790" t="s">
+        <v>994</v>
+      </c>
+      <c r="B790" t="n">
+        <v>2.35878336436997</v>
+      </c>
+      <c r="C790" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14377,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2">
@@ -17582,7 +17593,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B402" t="n">
         <v>1.95792757403776</v>
@@ -17593,7 +17604,7 @@
         <v>996</v>
       </c>
       <c r="B403" t="n">
-        <v>1.92147405863142</v>
+        <v>1.92022064425157</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -17604,7 +17604,7 @@
         <v>996</v>
       </c>
       <c r="B403" t="n">
-        <v>1.92022064425157</v>
+        <v>1.91990261606317</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="998">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -3005,6 +3005,9 @@
   </si>
   <si>
     <t xml:space="preserve">Oct 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 2025</t>
   </si>
 </sst>
 </file>
@@ -17604,7 +17607,15 @@
         <v>996</v>
       </c>
       <c r="B403" t="n">
-        <v>1.91990261606317</v>
+        <v>1.91997958263371</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>997</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1.92056476270744</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -17615,7 +17615,7 @@
         <v>997</v>
       </c>
       <c r="B404" t="n">
-        <v>1.92056476270744</v>
+        <v>1.92386574361883</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -3001,10 +3001,10 @@
     <t xml:space="preserve">Sep 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Oct 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oct 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Nov 2025</t>
@@ -5660,10 +5660,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>1.89969700106539</v>
+        <v>1.89970422802554</v>
       </c>
       <c r="C202" t="n">
-        <v>0.946991829280246</v>
+        <v>0.946993625165649</v>
       </c>
     </row>
   </sheetData>
@@ -14371,6 +14371,17 @@
         <v>2.46</v>
       </c>
     </row>
+    <row r="791">
+      <c r="A791" t="s">
+        <v>995</v>
+      </c>
+      <c r="B791" t="n">
+        <v>2.16316440049444</v>
+      </c>
+      <c r="C791" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14391,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2">
@@ -17604,7 +17615,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B403" t="n">
         <v>1.91997958263371</v>
@@ -17615,7 +17626,7 @@
         <v>997</v>
       </c>
       <c r="B404" t="n">
-        <v>1.92386574361883</v>
+        <v>1.92928095971623</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -17626,7 +17626,7 @@
         <v>997</v>
       </c>
       <c r="B404" t="n">
-        <v>1.92928095971623</v>
+        <v>1.93204914396576</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -17651,7 +17651,7 @@
         <v>999</v>
       </c>
       <c r="B405" t="n">
-        <v>1.9547348264121</v>
+        <v>1.95014724553849</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -3007,10 +3007,10 @@
     <t xml:space="preserve">Oct 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Nov 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Dec 2025</t>
@@ -14399,6 +14399,17 @@
         <v>2.43</v>
       </c>
     </row>
+    <row r="792">
+      <c r="A792" t="s">
+        <v>997</v>
+      </c>
+      <c r="B792" t="n">
+        <v>2.22496909765142</v>
+      </c>
+      <c r="C792" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14419,7 +14430,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="2">
@@ -17640,7 +17651,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B404" t="n">
         <v>1.93378439766577</v>
@@ -17651,7 +17662,7 @@
         <v>999</v>
       </c>
       <c r="B405" t="n">
-        <v>1.95014724553849</v>
+        <v>1.95142969005046</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -5655,10 +5655,10 @@
         <v>202</v>
       </c>
       <c r="B201" t="n">
-        <v>1.96357300507975</v>
+        <v>1.96380805971642</v>
       </c>
       <c r="C201" t="n">
-        <v>0.974961352450816</v>
+        <v>0.975089551190504</v>
       </c>
     </row>
     <row r="202">
@@ -5666,10 +5666,10 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>1.92749141636573</v>
+        <v>1.92753579950475</v>
       </c>
       <c r="C202" t="n">
-        <v>0.960845407896474</v>
+        <v>0.960868712896824</v>
       </c>
     </row>
     <row r="203">
@@ -5677,10 +5677,10 @@
         <v>204</v>
       </c>
       <c r="B203" t="n">
-        <v>1.90863221929643</v>
+        <v>1.91302957934523</v>
       </c>
       <c r="C203" t="n">
-        <v>0.967152898675587</v>
+        <v>0.968699085949909</v>
       </c>
     </row>
   </sheetData>
@@ -17662,7 +17662,7 @@
         <v>999</v>
       </c>
       <c r="B405" t="n">
-        <v>1.95142969005046</v>
+        <v>1.9495040304537</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="1001">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -3014,6 +3014,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dec 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 2026</t>
   </si>
 </sst>
 </file>
@@ -17662,7 +17665,15 @@
         <v>999</v>
       </c>
       <c r="B405" t="n">
-        <v>1.9495040304537</v>
+        <v>1.94791551300397</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1.95396781195252</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -17673,7 +17673,7 @@
         <v>1000</v>
       </c>
       <c r="B406" t="n">
-        <v>1.95396781195252</v>
+        <v>1.96422183203258</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -3010,10 +3010,10 @@
     <t xml:space="preserve">Nov 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Dec 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dec 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Jan 2026</t>
@@ -14413,6 +14413,17 @@
         <v>2.39</v>
       </c>
     </row>
+    <row r="793">
+      <c r="A793" t="s">
+        <v>998</v>
+      </c>
+      <c r="B793" t="n">
+        <v>2.3573200992556</v>
+      </c>
+      <c r="C793" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14433,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="2">
@@ -17662,7 +17673,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B405" t="n">
         <v>1.94791551300397</v>
@@ -17673,7 +17684,7 @@
         <v>1000</v>
       </c>
       <c r="B406" t="n">
-        <v>1.96422183203258</v>
+        <v>1.96763737862175</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -17684,7 +17684,7 @@
         <v>1000</v>
       </c>
       <c r="B406" t="n">
-        <v>1.96763737862175</v>
+        <v>1.97068290670089</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -3017,6 +3017,9 @@
   </si>
   <si>
     <t xml:space="preserve">Jan 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb 2026</t>
   </si>
 </sst>
 </file>
@@ -17684,7 +17687,15 @@
         <v>1000</v>
       </c>
       <c r="B406" t="n">
-        <v>1.97068290670089</v>
+        <v>1.97335422694081</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2.00008740729299</v>
       </c>
     </row>
   </sheetData>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="1001">
   <si>
     <t xml:space="preserve">Ref_Date</t>
   </si>
@@ -3017,9 +3017,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jan 2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feb 2026</t>
   </si>
 </sst>
 </file>
@@ -17690,14 +17687,6 @@
         <v>1.97335422694081</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B407" t="n">
-        <v>2.00008740729299</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/C07 Figures.xlsx
+++ b/Data/C07 Figures.xlsx
@@ -3013,10 +3013,10 @@
     <t xml:space="preserve">Dec 2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Jan 2026</t>
+  </si>
+  <si>
     <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 2026</t>
   </si>
 </sst>
 </file>
@@ -14424,6 +14424,17 @@
         <v>2.55</v>
       </c>
     </row>
+    <row r="794">
+      <c r="A794" t="s">
+        <v>999</v>
+      </c>
+      <c r="B794" t="n">
+        <v>2.2938623682579</v>
+      </c>
+      <c r="C794" t="n">
+        <v>2.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14444,7 +14455,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2">
@@ -17681,7 +17692,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B406" t="n">
         <v>1.97335422694081</v>
